--- a/datasets/所有实验结果.xlsx
+++ b/datasets/所有实验结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharmProjects\VFPUMC02\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803BF0AE-0C46-41C6-A7F6-4A3C1DFCF4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CEE358-8946-4C2E-9B0A-14532DD7805F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="不同半监督方法对比" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="29">
   <si>
     <t>dataset</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83:D109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -479,10 +479,12 @@
     <col min="2" max="2" width="7.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="4" customWidth="1"/>
     <col min="4" max="7" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="4"/>
+    <col min="8" max="9" width="8.88671875" style="4"/>
+    <col min="10" max="10" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -505,7 +507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -527,8 +529,38 @@
       <c r="G2" s="2">
         <v>0.99795676954511203</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0.59590517200000004</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.69418103399999997</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0.77219827600000002</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0.83620689699999995</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0.92629310300000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -550,8 +582,38 @@
       <c r="G3" s="2">
         <v>0.99720610358908202</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.58901098900000004</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.61171366599999999</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.61315979799999998</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.59841269799999997</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.57436112299999997</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.58209496199999999</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.55116640699999997</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0.50386357599999998</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0.47940255399999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -573,8 +635,38 @@
       <c r="G4" s="2">
         <v>0.99570815450643702</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.54945054900000001</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.54446854700000002</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.51988430900000004</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.53650793699999999</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.49392542900000003</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.50888002899999996</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.52783825799999995</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0.42073008299999998</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0.49144784400000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -596,8 +688,38 @@
       <c r="G5" s="2">
         <v>0.99924625821040103</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.99560439599999995</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.99674620400000002</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.98626175000000005</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.98412698399999998</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.99413489700000002</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.98477709300000005</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.98538102599999999</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0.94697575300000003</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0.97639123100000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -619,8 +741,38 @@
       <c r="G6" s="2">
         <v>0.55349814833349997</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.69595714799999997</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.74748118900000005</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.78995026099999999</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.84530034399999998</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0.89019257699999998</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0.94579773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -642,8 +794,38 @@
       <c r="G7" s="2">
         <v>0.68780696134956198</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.133171913</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.13894200100000001</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.16758825999999999</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.166242848</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.20283140299999999</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.20497554800000001</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.20574250199999999</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0.216687817</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0.231184323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -665,8 +847,38 @@
       <c r="G8" s="2">
         <v>0.76355887053809202</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.14043583500000001</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.108349267</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.1161208</v>
+      </c>
+      <c r="N8" s="4">
+        <v>9.8219961999999994E-2</v>
+      </c>
+      <c r="O8" s="4">
+        <v>8.2368081999999995E-2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>7.2081649999999997E-2</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>5.1024140000000003E-2</v>
+      </c>
+      <c r="R8" s="4">
+        <v>4.2829948999999999E-2</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1.9170690000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -688,8 +900,38 @@
       <c r="G9" s="2">
         <v>0.83252869863748502</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -711,8 +953,38 @@
       <c r="G10" s="2">
         <v>0.91466269419025303</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.70253164599999995</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.72061482799999999</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0.78044002400000001</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.83333333300000001</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0.89029535900000001</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0.94318866800000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -734,8 +1006,38 @@
       <c r="G11" s="2">
         <v>0.99505076142131899</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.71004243300000003</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.71406491500000002</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.70396387400000004</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.69140030399999997</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.69939939900000003</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0.67275494700000005</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.64894298500000003</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0.61730950100000004</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0.56030867299999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
@@ -757,8 +1059,38 @@
       <c r="G12" s="2">
         <v>0.99713867870541095</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.63083451199999996</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.60664605900000002</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.59909683899999999</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.57115677300000001</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.54984984999999997</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0.54769152700000001</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.48900277599999997</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0.46716839100000002</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0.45009226600000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -780,8 +1112,38 @@
       <c r="G13" s="2">
         <v>0.99555611985779502</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.96746817500000004</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.96986089600000003</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.96788760699999998</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.96423135500000001</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.96186186200000001</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0.960679858</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0.968823404</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0.94957667000000001</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0.96057708399999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -804,7 +1166,7 @@
         <v>0.69233697031210295</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -827,7 +1189,7 @@
         <v>0.74039919151086397</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -3000,7 +3362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C86C15D-BFBD-4DB8-96C0-D776DCD84AC2}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/datasets/所有实验结果.xlsx
+++ b/datasets/所有实验结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharmProjects\VFPUMC02\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CEE358-8946-4C2E-9B0A-14532DD7805F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFC876C-2F60-4E89-BCE7-31E1D5671288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:S109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:S13"/>
+      <selection activeCell="K2" sqref="K2:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -533,31 +533,31 @@
         <v>19</v>
       </c>
       <c r="K2" s="4">
-        <v>1</v>
+        <v>0.99795677000000005</v>
       </c>
       <c r="L2" s="4">
-        <v>1</v>
+        <v>0.99720610399999998</v>
       </c>
       <c r="M2" s="4">
-        <v>1</v>
+        <v>0.99570815499999998</v>
       </c>
       <c r="N2" s="4">
-        <v>1</v>
+        <v>0.999246258</v>
       </c>
       <c r="O2" s="4">
-        <v>0.59590517200000004</v>
+        <v>0.55349814799999997</v>
       </c>
       <c r="P2" s="4">
-        <v>0.69418103399999997</v>
+        <v>0.68780696100000005</v>
       </c>
       <c r="Q2" s="4">
-        <v>0.77219827600000002</v>
+        <v>0.76355887099999997</v>
       </c>
       <c r="R2" s="4">
-        <v>0.83620689699999995</v>
+        <v>0.83252869900000004</v>
       </c>
       <c r="S2" s="4">
-        <v>0.92629310300000001</v>
+        <v>0.914662694</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -586,31 +586,31 @@
         <v>20</v>
       </c>
       <c r="K3" s="4">
-        <v>0.58901098900000004</v>
+        <v>0.99505076100000001</v>
       </c>
       <c r="L3" s="4">
-        <v>0.61171366599999999</v>
+        <v>0.99713867899999997</v>
       </c>
       <c r="M3" s="4">
-        <v>0.61315979799999998</v>
+        <v>0.99555612000000004</v>
       </c>
       <c r="N3" s="4">
-        <v>0.59841269799999997</v>
+        <v>0.69233697000000005</v>
       </c>
       <c r="O3" s="4">
-        <v>0.57436112299999997</v>
+        <v>0.74039919200000004</v>
       </c>
       <c r="P3" s="4">
-        <v>0.58209496199999999</v>
+        <v>0.78305941800000001</v>
       </c>
       <c r="Q3" s="4">
-        <v>0.55116640699999997</v>
+        <v>0.83570798099999999</v>
       </c>
       <c r="R3" s="4">
-        <v>0.50386357599999998</v>
+        <v>0.881702773</v>
       </c>
       <c r="S3" s="4">
-        <v>0.47940255399999998</v>
+        <v>0.93271286600000003</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -639,31 +639,31 @@
         <v>21</v>
       </c>
       <c r="K4" s="4">
-        <v>0.54945054900000001</v>
+        <v>0.99736980500000005</v>
       </c>
       <c r="L4" s="4">
-        <v>0.54446854700000002</v>
+        <v>0.99947285200000002</v>
       </c>
       <c r="M4" s="4">
-        <v>0.51988430900000004</v>
+        <v>0.98245614000000003</v>
       </c>
       <c r="N4" s="4">
-        <v>0.53650793699999999</v>
+        <v>0.68478260899999999</v>
       </c>
       <c r="O4" s="4">
-        <v>0.49392542900000003</v>
+        <v>0.70014641300000002</v>
       </c>
       <c r="P4" s="4">
-        <v>0.50888002899999996</v>
+        <v>0.75112400300000004</v>
       </c>
       <c r="Q4" s="4">
-        <v>0.52783825799999995</v>
+        <v>0.80185601399999995</v>
       </c>
       <c r="R4" s="4">
-        <v>0.42073008299999998</v>
+        <v>0.84970516299999999</v>
       </c>
       <c r="S4" s="4">
-        <v>0.49144784400000002</v>
+        <v>0.89401514100000001</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -692,31 +692,31 @@
         <v>22</v>
       </c>
       <c r="K5" s="4">
-        <v>0.99560439599999995</v>
+        <v>0.69072164899999999</v>
       </c>
       <c r="L5" s="4">
-        <v>0.99674620400000002</v>
+        <v>0.69801980200000002</v>
       </c>
       <c r="M5" s="4">
-        <v>0.98626175000000005</v>
+        <v>0.69622331699999995</v>
       </c>
       <c r="N5" s="4">
-        <v>0.98412698399999998</v>
+        <v>0.68649468899999999</v>
       </c>
       <c r="O5" s="4">
-        <v>0.99413489700000002</v>
+        <v>0.66634264899999995</v>
       </c>
       <c r="P5" s="4">
-        <v>0.98477709300000005</v>
+        <v>0.65644798699999996</v>
       </c>
       <c r="Q5" s="4">
-        <v>0.98538102599999999</v>
+        <v>0.629149654</v>
       </c>
       <c r="R5" s="4">
-        <v>0.94697575300000003</v>
+        <v>0.58247343299999998</v>
       </c>
       <c r="S5" s="4">
-        <v>0.97639123100000003</v>
+        <v>0.537983239</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -745,31 +745,31 @@
         <v>19</v>
       </c>
       <c r="K6" s="4">
-        <v>1</v>
+        <v>0.79936305699999999</v>
       </c>
       <c r="L6" s="4">
-        <v>1</v>
+        <v>0.79347359399999995</v>
       </c>
       <c r="M6" s="4">
-        <v>1</v>
+        <v>0.79153737700000004</v>
       </c>
       <c r="N6" s="4">
-        <v>0.69595714799999997</v>
+        <v>0.77401490900000003</v>
       </c>
       <c r="O6" s="4">
-        <v>0.74748118900000005</v>
+        <v>0.77762938199999998</v>
       </c>
       <c r="P6" s="4">
-        <v>0.78995026099999999</v>
+        <v>0.75116839000000002</v>
       </c>
       <c r="Q6" s="4">
-        <v>0.84530034399999998</v>
+        <v>0.72668579600000005</v>
       </c>
       <c r="R6" s="4">
-        <v>0.89019257699999998</v>
+        <v>0.69645510499999996</v>
       </c>
       <c r="S6" s="4">
-        <v>0.94579773</v>
+        <v>0.63281546</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -798,31 +798,31 @@
         <v>20</v>
       </c>
       <c r="K7" s="4">
-        <v>0.133171913</v>
+        <v>0.19555555599999999</v>
       </c>
       <c r="L7" s="4">
-        <v>0.13894200100000001</v>
+        <v>0.196750903</v>
       </c>
       <c r="M7" s="4">
-        <v>0.16758825999999999</v>
+        <v>0.220173233</v>
       </c>
       <c r="N7" s="4">
-        <v>0.166242848</v>
+        <v>0.21535927499999999</v>
       </c>
       <c r="O7" s="4">
-        <v>0.20283140299999999</v>
+        <v>0.242126287</v>
       </c>
       <c r="P7" s="4">
-        <v>0.20497554800000001</v>
+        <v>0.23796593399999999</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.20574250199999999</v>
+        <v>0.23039115299999999</v>
       </c>
       <c r="R7" s="4">
-        <v>0.216687817</v>
+        <v>0.23643444399999999</v>
       </c>
       <c r="S7" s="4">
-        <v>0.231184323</v>
+        <v>0.23946458800000001</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -851,31 +851,31 @@
         <v>21</v>
       </c>
       <c r="K8" s="4">
-        <v>0.14043583500000001</v>
+        <v>0.59594755700000002</v>
       </c>
       <c r="L8" s="4">
-        <v>0.108349267</v>
+        <v>0.60336538500000003</v>
       </c>
       <c r="M8" s="4">
-        <v>0.1161208</v>
+        <v>0.57382282500000004</v>
       </c>
       <c r="N8" s="4">
-        <v>9.8219961999999994E-2</v>
+        <v>0.58680555599999995</v>
       </c>
       <c r="O8" s="4">
-        <v>8.2368081999999995E-2</v>
+        <v>0.55378111799999996</v>
       </c>
       <c r="P8" s="4">
-        <v>7.2081649999999997E-2</v>
+        <v>0.54072790299999995</v>
       </c>
       <c r="Q8" s="4">
-        <v>5.1024140000000003E-2</v>
+        <v>0.55767334899999998</v>
       </c>
       <c r="R8" s="4">
-        <v>4.2829948999999999E-2</v>
+        <v>0.49113530300000002</v>
       </c>
       <c r="S8" s="4">
-        <v>1.9170690000000001E-2</v>
+        <v>0.51095804600000005</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -904,31 +904,31 @@
         <v>22</v>
       </c>
       <c r="K9" s="4">
-        <v>0</v>
+        <v>0.194304858</v>
       </c>
       <c r="L9" s="4">
-        <v>0</v>
+        <v>0.15349887100000001</v>
       </c>
       <c r="M9" s="4">
-        <v>0</v>
+        <v>0.16535433099999999</v>
       </c>
       <c r="N9" s="4">
-        <v>0</v>
+        <v>0.14517265700000001</v>
       </c>
       <c r="O9" s="4">
-        <v>0</v>
+        <v>0.12517113199999999</v>
       </c>
       <c r="P9" s="4">
-        <v>0</v>
+        <v>0.11421832899999999</v>
       </c>
       <c r="Q9" s="4">
-        <v>0</v>
+        <v>8.4175591999999994E-2</v>
       </c>
       <c r="R9" s="4">
-        <v>0</v>
+        <v>7.4482758999999996E-2</v>
       </c>
       <c r="S9" s="4">
-        <v>0</v>
+        <v>3.5456335999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -957,31 +957,31 @@
         <v>19</v>
       </c>
       <c r="K10" s="4">
-        <v>1</v>
+        <v>0.99560439599999995</v>
       </c>
       <c r="L10" s="4">
-        <v>1</v>
+        <v>0.98605150200000002</v>
       </c>
       <c r="M10" s="4">
-        <v>1</v>
+        <v>0.98519321100000001</v>
       </c>
       <c r="N10" s="4">
-        <v>0.70253164599999995</v>
+        <v>0.97586568699999998</v>
       </c>
       <c r="O10" s="4">
-        <v>0.72061482799999999</v>
+        <v>0.98628428899999998</v>
       </c>
       <c r="P10" s="4">
-        <v>0.78044002400000001</v>
+        <v>0.96381695599999995</v>
       </c>
       <c r="Q10" s="4">
-        <v>0.83333333300000001</v>
+        <v>0.966295562</v>
       </c>
       <c r="R10" s="4">
-        <v>0.89029535900000001</v>
+        <v>0.95026737999999999</v>
       </c>
       <c r="S10" s="4">
-        <v>0.94318866800000001</v>
+        <v>0.92544811100000002</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1010,31 +1010,31 @@
         <v>20</v>
       </c>
       <c r="K11" s="4">
-        <v>0.71004243300000003</v>
+        <v>0.67168674699999997</v>
       </c>
       <c r="L11" s="4">
-        <v>0.71406491500000002</v>
+        <v>0.65416666700000003</v>
       </c>
       <c r="M11" s="4">
-        <v>0.70396387400000004</v>
+        <v>0.64926590500000003</v>
       </c>
       <c r="N11" s="4">
-        <v>0.69140030399999997</v>
+        <v>0.62935010499999999</v>
       </c>
       <c r="O11" s="4">
-        <v>0.69939939900000003</v>
+        <v>0.61002831899999999</v>
       </c>
       <c r="P11" s="4">
-        <v>0.67275494700000005</v>
+        <v>0.59947244200000005</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.64894298500000003</v>
+        <v>0.54843731299999998</v>
       </c>
       <c r="R11" s="4">
-        <v>0.61730950100000004</v>
+        <v>0.52656133999999999</v>
       </c>
       <c r="S11" s="4">
-        <v>0.56030867299999998</v>
+        <v>0.47910714300000001</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1063,31 +1063,31 @@
         <v>21</v>
       </c>
       <c r="K12" s="4">
-        <v>0.63083451199999996</v>
+        <v>0.67168674699999997</v>
       </c>
       <c r="L12" s="4">
-        <v>0.60664605900000002</v>
+        <v>0.65416666700000003</v>
       </c>
       <c r="M12" s="4">
-        <v>0.59909683899999999</v>
+        <v>0.64926590500000003</v>
       </c>
       <c r="N12" s="4">
-        <v>0.57115677300000001</v>
+        <v>0.62935010499999999</v>
       </c>
       <c r="O12" s="4">
-        <v>0.54984984999999997</v>
+        <v>0.61002831899999999</v>
       </c>
       <c r="P12" s="4">
-        <v>0.54769152700000001</v>
+        <v>0.59947244200000005</v>
       </c>
       <c r="Q12" s="4">
-        <v>0.48900277599999997</v>
+        <v>0.54843731299999998</v>
       </c>
       <c r="R12" s="4">
-        <v>0.46716839100000002</v>
+        <v>0.52656133999999999</v>
       </c>
       <c r="S12" s="4">
-        <v>0.45009226600000002</v>
+        <v>0.47910714300000001</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1116,31 +1116,31 @@
         <v>22</v>
       </c>
       <c r="K13" s="4">
-        <v>0.96746817500000004</v>
+        <v>0.98346513300000005</v>
       </c>
       <c r="L13" s="4">
-        <v>0.96986089600000003</v>
+        <v>0.98431372500000003</v>
       </c>
       <c r="M13" s="4">
-        <v>0.96788760699999998</v>
+        <v>0.98318042800000005</v>
       </c>
       <c r="N13" s="4">
-        <v>0.96423135500000001</v>
+        <v>0.98159984499999997</v>
       </c>
       <c r="O13" s="4">
-        <v>0.96186186200000001</v>
+        <v>0.98056023299999995</v>
       </c>
       <c r="P13" s="4">
-        <v>0.960679858</v>
+        <v>0.97918552000000003</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.968823404</v>
+        <v>0.98395142099999999</v>
       </c>
       <c r="R13" s="4">
-        <v>0.94957667000000001</v>
+        <v>0.974136267</v>
       </c>
       <c r="S13" s="4">
-        <v>0.96057708399999997</v>
+        <v>0.97763360099999996</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
